--- a/sm_core/style_update.xlsx
+++ b/sm_core/style_update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\github\portfolio\sm_core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814FD732-5C89-4091-89D3-D6608BF41B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE481F68-195C-44DD-8B7D-6B4910A3772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC6AFA67-46D4-4969-81EF-6FFCC37421B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC6AFA67-46D4-4969-81EF-6FFCC37421B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,24 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>SM Custom Blend</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>style_name</t>
   </si>
   <si>
     <t>account_number</t>
-  </si>
-  <si>
-    <t>Advisor Traded</t>
-  </si>
-  <si>
-    <t>SM Solera Tierce</t>
-  </si>
-  <si>
-    <t>SM AMP Balanced</t>
   </si>
 </sst>
 </file>
@@ -118,17 +106,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -452,7 +430,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A52"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,75 +442,35 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43866670</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>628290379</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>628372188</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>945738881</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>945782552</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>628394114</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>945794452</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>943398966</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -685,7 +623,7 @@
     <sortCondition ref="B2:B56"/>
   </sortState>
   <conditionalFormatting sqref="A2:A5 A14:A52">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
